--- a/rapports/evaluation/DRA_Evaluation_Stefana.xlsx
+++ b/rapports/evaluation/DRA_Evaluation_Stefana.xlsx
@@ -13,7 +13,6 @@
     <sheet name="Résumé financier" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'Détails des coûts'!$1:$2</definedName>
     <definedName name="_pg1">'Détails des coûts'!$A$1:$J$23</definedName>
     <definedName name="_pg10">'Détails des coûts'!#REF!</definedName>
     <definedName name="_pg11">'Détails des coûts'!#REF!</definedName>
@@ -26,15 +25,16 @@
     <definedName name="_pg7">'Détails des coûts'!$A$121:$J$133</definedName>
     <definedName name="_pg8">'Détails des coûts'!$A$134:$J$146</definedName>
     <definedName name="_pg9">'Détails des coûts'!#REF!</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'Détails des coûts'!$1:$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Détails des coûts'!$A$1:$I$148</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Résumé financier'!$A$1:$H$25</definedName>
   </definedNames>
-  <calcPr calcId="125725" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="157">
   <si>
     <t>Projet Longue Durée en SI (2010/2011)</t>
   </si>
@@ -511,6 +511,12 @@
   </si>
   <si>
     <t>ROI</t>
+  </si>
+  <si>
+    <t>faible</t>
+  </si>
+  <si>
+    <t>2 ans et 7 mois</t>
   </si>
 </sst>
 </file>
@@ -989,7 +995,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1292,6 +1298,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="22" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="22" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1299,11 +1310,12 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="4" fontId="22" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="4" fontId="22" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="22" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1731,8 +1743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IU41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75"/>
@@ -1826,14 +1838,18 @@
       <c r="A15" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="16"/>
+      <c r="B15" s="150">
+        <v>359600</v>
+      </c>
       <c r="C15" s="16"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="16"/>
+      <c r="B16" s="150" t="s">
+        <v>155</v>
+      </c>
       <c r="C16" s="16"/>
     </row>
     <row r="17" spans="1:4">
@@ -1847,21 +1863,27 @@
       <c r="A18" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="16"/>
+      <c r="B18" s="150">
+        <v>136000</v>
+      </c>
       <c r="C18" s="16"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="16"/>
+      <c r="B19" s="16">
+        <v>0.89100000000000001</v>
+      </c>
       <c r="C19" s="16"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="19"/>
+      <c r="B20" s="151" t="s">
+        <v>156</v>
+      </c>
       <c r="C20" s="19"/>
     </row>
     <row r="22" spans="1:4">
@@ -3622,12 +3644,12 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="6">
+    <mergeCell ref="C146:E146"/>
     <mergeCell ref="H25:H26"/>
     <mergeCell ref="H35:H36"/>
     <mergeCell ref="H45:H46"/>
     <mergeCell ref="H55:H56"/>
     <mergeCell ref="H65:H66"/>
-    <mergeCell ref="C146:E146"/>
   </mergeCells>
   <pageMargins left="0.2361111111111111" right="0.35416666666666669" top="0.1701388888888889" bottom="0.1701388888888889" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -4188,16 +4210,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="148" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
     </row>
     <row r="2" spans="1:8" s="111" customFormat="1" ht="25.5">
       <c r="A2" s="110"/>
@@ -4213,13 +4235,13 @@
       </c>
       <c r="B3" s="113"/>
       <c r="C3" s="110"/>
-      <c r="D3" s="146" t="s">
+      <c r="D3" s="149" t="s">
         <v>126</v>
       </c>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
     </row>
     <row r="4" spans="1:8" s="111" customFormat="1" ht="25.5">
       <c r="A4" s="114"/>
@@ -4366,14 +4388,14 @@
       <c r="A21" s="130" t="s">
         <v>139</v>
       </c>
-      <c r="B21" s="147">
+      <c r="B21" s="145">
         <f>SUM(B15:B20)</f>
         <v>0</v>
       </c>
-      <c r="C21" s="148"/>
+      <c r="C21" s="146"/>
       <c r="D21" s="131"/>
-      <c r="E21" s="149"/>
-      <c r="F21" s="148">
+      <c r="E21" s="147"/>
+      <c r="F21" s="146">
         <f>SUM(F15:F20)</f>
         <v>0</v>
       </c>
@@ -4382,11 +4404,11 @@
       <c r="A22" s="132" t="s">
         <v>140</v>
       </c>
-      <c r="B22" s="147"/>
-      <c r="C22" s="148"/>
+      <c r="B22" s="145"/>
+      <c r="C22" s="146"/>
       <c r="D22" s="133"/>
-      <c r="E22" s="149"/>
-      <c r="F22" s="148"/>
+      <c r="E22" s="147"/>
+      <c r="F22" s="146"/>
     </row>
     <row r="23" spans="1:6" s="117" customFormat="1" ht="23.25">
       <c r="A23" s="134"/>
@@ -4511,14 +4533,14 @@
       <c r="A35" s="130" t="s">
         <v>139</v>
       </c>
-      <c r="B35" s="147">
+      <c r="B35" s="145">
         <f>SUM(B29:B34)</f>
         <v>0</v>
       </c>
-      <c r="C35" s="148"/>
+      <c r="C35" s="146"/>
       <c r="D35" s="131"/>
-      <c r="E35" s="149"/>
-      <c r="F35" s="148">
+      <c r="E35" s="147"/>
+      <c r="F35" s="146">
         <f>SUM(F29:F34)</f>
         <v>0</v>
       </c>
@@ -4527,11 +4549,11 @@
       <c r="A36" s="132" t="s">
         <v>140</v>
       </c>
-      <c r="B36" s="147"/>
-      <c r="C36" s="148"/>
+      <c r="B36" s="145"/>
+      <c r="C36" s="146"/>
       <c r="D36" s="133"/>
-      <c r="E36" s="149"/>
-      <c r="F36" s="148"/>
+      <c r="E36" s="147"/>
+      <c r="F36" s="146"/>
     </row>
     <row r="40" spans="1:6" ht="22.5">
       <c r="A40" s="118" t="s">
